--- a/data/trans_dic/Q23_tabaco_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Q23_tabaco_R2-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4229555362308046</v>
+        <v>0.4260119768591987</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4215983291802864</v>
+        <v>0.417865006879127</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4103569403275831</v>
+        <v>0.4019613287915944</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4718772461390247</v>
+        <v>0.4791213781839395</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2027033704094986</v>
+        <v>0.2057863844876997</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2574151136665667</v>
+        <v>0.2531241582654175</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2683727904937788</v>
+        <v>0.2658494498545627</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2102753068923503</v>
+        <v>0.2058910752639357</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3758613526240928</v>
+        <v>0.3777446507361792</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3859082481266137</v>
+        <v>0.3818756201167334</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3787161707294945</v>
+        <v>0.3824002046707929</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4137295529629699</v>
+        <v>0.4145119524505769</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5018276430244532</v>
+        <v>0.510617181946502</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5032929226419561</v>
+        <v>0.4970583025082174</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5050312652548358</v>
+        <v>0.5017862212002231</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5776434965494532</v>
+        <v>0.5810269275058083</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3274302274468728</v>
+        <v>0.3196468704941146</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3731401405527381</v>
+        <v>0.3752931097183007</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4164356226038133</v>
+        <v>0.4066662806504175</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3394207152249589</v>
+        <v>0.338781220064156</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4446589789203982</v>
+        <v>0.4448724559655725</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4494903804292172</v>
+        <v>0.4524980386513163</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4585456079692552</v>
+        <v>0.4674961990848857</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4956023924803716</v>
+        <v>0.4997760196589145</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2890569303896867</v>
+        <v>0.294081824342536</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3045332450334507</v>
+        <v>0.3031478959169804</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3218878609727517</v>
+        <v>0.3255639807747321</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2740649233685202</v>
+        <v>0.2758072765728898</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2501209177656888</v>
+        <v>0.2595182802479342</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2562860181790363</v>
+        <v>0.2600835513171385</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2253262979723238</v>
+        <v>0.2253525914805047</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2080292204126077</v>
+        <v>0.2075046923539455</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2881461568519804</v>
+        <v>0.2873152051632189</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2917034539852609</v>
+        <v>0.2904496223528601</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2873574261432946</v>
+        <v>0.2881333668458931</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.255281514035627</v>
+        <v>0.2543008279179165</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3526271972865223</v>
+        <v>0.3568227044286471</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3616201199800745</v>
+        <v>0.3626544085710371</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3816948695012684</v>
+        <v>0.382530768801973</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3408692450553417</v>
+        <v>0.3405113572117881</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3247066322373929</v>
+        <v>0.3290367892417481</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3207846586999918</v>
+        <v>0.3214570649973849</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2843970173684837</v>
+        <v>0.2865668979106022</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2694194417166454</v>
+        <v>0.2670264011786333</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3344729649448485</v>
+        <v>0.332454520794814</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3335509573322569</v>
+        <v>0.3325936777394983</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3289726115392974</v>
+        <v>0.3308111963880828</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3002816600412058</v>
+        <v>0.3007762906096173</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.228399565066869</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2041235325372086</v>
+        <v>0.2041235325372087</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1808508878843782</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1397350214547121</v>
+        <v>0.1436946033436778</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1450202511783603</v>
+        <v>0.1483207198907633</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1840277509435975</v>
+        <v>0.1818379578324684</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.15148921133221</v>
+        <v>0.1530026492246357</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1119964017856385</v>
+        <v>0.1109862297950064</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1234813589065219</v>
+        <v>0.1276581959757578</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1664765161752529</v>
+        <v>0.1728630032509976</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1603752312253769</v>
+        <v>0.1604787505215344</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1427661332911285</v>
+        <v>0.1388762868142274</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1517157496930834</v>
+        <v>0.1566986783683742</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1959507755988358</v>
+        <v>0.1941964407293927</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.165626711568589</v>
+        <v>0.1678282225774174</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2500828763156943</v>
+        <v>0.2469187770793852</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.263136311501023</v>
+        <v>0.2639734394367511</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3078556151088963</v>
+        <v>0.3106932034421872</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2529338033948665</v>
+        <v>0.24751930569989</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.228050559410967</v>
+        <v>0.2329502798533608</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.247686718505831</v>
+        <v>0.259993766200278</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2912681104969017</v>
+        <v>0.2838779404487097</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2636157323477183</v>
+        <v>0.2587983153467239</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.222296795331367</v>
+        <v>0.2224575945879976</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2367110222814832</v>
+        <v>0.2351778597248868</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2812680615729632</v>
+        <v>0.2828455536946179</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2380182387743414</v>
+        <v>0.2353750008566804</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.3198890797094593</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2948377822641973</v>
+        <v>0.2948377822641972</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3315093644701953</v>
+        <v>0.3331761470086834</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.336755331486221</v>
+        <v>0.3382153392186034</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3385178041919089</v>
+        <v>0.3395778173562827</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3129201177861849</v>
+        <v>0.3111474504170878</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2365197931420601</v>
+        <v>0.2368917359900097</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2520175881748818</v>
+        <v>0.2510263389004352</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2363722836556626</v>
+        <v>0.2357556956666013</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2088305940576922</v>
+        <v>0.210936198900916</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3030077557531237</v>
+        <v>0.3022428051126271</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3103063719631823</v>
+        <v>0.3092253272406877</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3043037095487356</v>
+        <v>0.3024997387182854</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2767781124427172</v>
+        <v>0.277040392254582</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3775364533622764</v>
+        <v>0.3792304801441185</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3834634610213374</v>
+        <v>0.3828883658563066</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3859777075143258</v>
+        <v>0.3864330921502653</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3622882474327371</v>
+        <v>0.3616206282161802</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2919754152445539</v>
+        <v>0.2912809067324123</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3019926408243084</v>
+        <v>0.302376772754287</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.286568209966225</v>
+        <v>0.2862185790245948</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2569582965053023</v>
+        <v>0.261186083705666</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3395202570995963</v>
+        <v>0.3391815946001931</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3421224741819863</v>
+        <v>0.3438409215307311</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3387405195572629</v>
+        <v>0.3370570596214278</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.312750337428731</v>
+        <v>0.3128776107367202</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>248063</v>
+        <v>249855</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>285732</v>
+        <v>283202</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>175523</v>
+        <v>171932</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>152095</v>
+        <v>154430</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>42488</v>
+        <v>43134</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>67770</v>
+        <v>66640</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>46442</v>
+        <v>46005</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>26641</v>
+        <v>26086</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>299225</v>
+        <v>300725</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>363141</v>
+        <v>359346</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>227525</v>
+        <v>229739</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>185771</v>
+        <v>186122</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>294321</v>
+        <v>299476</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>341099</v>
+        <v>336874</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>216019</v>
+        <v>214631</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>186186</v>
+        <v>187277</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>68632</v>
+        <v>67001</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>98237</v>
+        <v>98803</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>72064</v>
+        <v>70373</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>43003</v>
+        <v>42922</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>353996</v>
+        <v>354166</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>422972</v>
+        <v>425802</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>275485</v>
+        <v>280863</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>222533</v>
+        <v>224407</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>258572</v>
+        <v>263066</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>339246</v>
+        <v>337703</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>356182</v>
+        <v>360250</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>264760</v>
+        <v>266444</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>154982</v>
+        <v>160805</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>217336</v>
+        <v>220557</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>191199</v>
+        <v>191221</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>148885</v>
+        <v>148509</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>436301</v>
+        <v>435042</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>572325</v>
+        <v>569864</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>561807</v>
+        <v>563324</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>429318</v>
+        <v>427668</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>315437</v>
+        <v>319190</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>402840</v>
+        <v>403992</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>422361</v>
+        <v>423286</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>329297</v>
+        <v>328951</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>201198</v>
+        <v>203881</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>272033</v>
+        <v>272603</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>241323</v>
+        <v>243164</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>192821</v>
+        <v>191109</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>506447</v>
+        <v>503391</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>654430</v>
+        <v>652551</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>643168</v>
+        <v>646763</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>504996</v>
+        <v>505828</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>32654</v>
+        <v>33579</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>34876</v>
+        <v>35669</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>40624</v>
+        <v>40140</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>38553</v>
+        <v>38938</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>18764</v>
+        <v>18595</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>25343</v>
+        <v>26200</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>36045</v>
+        <v>37428</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>33841</v>
+        <v>33862</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>57282</v>
+        <v>55721</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>67623</v>
+        <v>69844</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>85683</v>
+        <v>84916</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>77100</v>
+        <v>78125</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>58440</v>
+        <v>57701</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>63281</v>
+        <v>63482</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>67959</v>
+        <v>68585</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>64370</v>
+        <v>62992</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>38208</v>
+        <v>39029</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>50834</v>
+        <v>53360</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>63065</v>
+        <v>61465</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>55625</v>
+        <v>54609</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>89191</v>
+        <v>89256</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>105507</v>
+        <v>104824</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>122989</v>
+        <v>123679</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>110798</v>
+        <v>109568</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>568445</v>
+        <v>571303</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>684357</v>
+        <v>687324</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>594106</v>
+        <v>595967</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>482793</v>
+        <v>480058</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>235758</v>
+        <v>236129</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>331788</v>
+        <v>330483</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>292654</v>
+        <v>291891</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>219982</v>
+        <v>222200</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>821605</v>
+        <v>819530</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1039134</v>
+        <v>1035514</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>910821</v>
+        <v>905421</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>718588</v>
+        <v>719269</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>647368</v>
+        <v>650273</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>779278</v>
+        <v>778109</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>677399</v>
+        <v>678199</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>558961</v>
+        <v>557931</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>291036</v>
+        <v>290343</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>397581</v>
+        <v>398087</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>354802</v>
+        <v>354370</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>270679</v>
+        <v>275133</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>920608</v>
+        <v>919690</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1145678</v>
+        <v>1151432</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1013894</v>
+        <v>1008856</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>811982</v>
+        <v>812312</v>
       </c>
     </row>
     <row r="20">
